--- a/Tests/1/Test_SingleRun12.xlsx
+++ b/Tests/1/Test_SingleRun12.xlsx
@@ -152,7 +152,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -329,6 +329,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,24 +362,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,55 +686,55 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="45">
+      <c r="B2" s="43"/>
+      <c r="C2" s="40">
         <v>1811.9839999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="44">
+      <c r="B3" s="43"/>
+      <c r="C3" s="39">
         <v>6863.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="43">
+      <c r="B4" s="43"/>
+      <c r="C4" s="38">
         <v>2333.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="46">
+      <c r="B5" s="43"/>
+      <c r="C5" s="41">
         <v>0.81400000000000095</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="47">
+      <c r="B6" s="43"/>
+      <c r="C6" s="42">
         <v>1.0505677145283143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="23">
         <v>60</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="37">
         <v>43289.7</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="37">
         <v>11527.6</v>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="37">
         <v>4698.7</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>2540.8000000000002</v>
       </c>
     </row>
@@ -786,7 +786,7 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="37">
         <v>1544.6</v>
       </c>
     </row>
@@ -794,7 +794,7 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="37">
         <v>1133.8</v>
       </c>
     </row>
@@ -802,7 +802,7 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="37">
         <v>795.2</v>
       </c>
     </row>
@@ -810,7 +810,7 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="37">
         <v>586.5</v>
       </c>
     </row>
@@ -818,7 +818,7 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="37">
         <v>449.3</v>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="B18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="37">
         <v>429.6</v>
       </c>
     </row>
@@ -834,7 +834,7 @@
       <c r="B19" s="4">
         <v>11.5</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="37">
         <v>331.5</v>
       </c>
     </row>
@@ -842,7 +842,7 @@
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="37">
         <v>312.60000000000002</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
       <c r="B21" s="3">
         <v>14.5</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="37">
         <v>286.39999999999998</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="37">
         <v>289.2</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="B23" s="3">
         <v>17.5</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="37">
         <v>228</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="37">
         <v>239.3</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="B25" s="3">
         <v>20.5</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="37">
         <v>200.8</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="37">
         <v>161.1</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
       <c r="B27" s="3">
         <v>23.5</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="37">
         <v>147.19999999999999</v>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="37">
         <v>159.1</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="37">
         <v>201.6</v>
       </c>
     </row>
@@ -922,7 +922,7 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="37">
         <v>167.6</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
       <c r="B31" s="3">
         <v>31</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="37">
         <v>143.1</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       <c r="B32" s="3">
         <v>33</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="37">
         <v>118.4</v>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="B33" s="3">
         <v>35</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="37">
         <v>96.1</v>
       </c>
     </row>
@@ -954,7 +954,7 @@
       <c r="B34" s="3">
         <v>37</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="37">
         <v>122.1</v>
       </c>
     </row>
@@ -962,7 +962,7 @@
       <c r="B35" s="3">
         <v>39</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="37">
         <v>104.6</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
       <c r="B36" s="3">
         <v>41</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="37">
         <v>92.8</v>
       </c>
     </row>
@@ -978,7 +978,7 @@
       <c r="B37" s="3">
         <v>43</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="37">
         <v>108.3</v>
       </c>
     </row>
@@ -986,7 +986,7 @@
       <c r="B38" s="3">
         <v>45</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="37">
         <v>103.6</v>
       </c>
     </row>
@@ -1008,8 +1008,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,11 +1025,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="39">
+      <c r="B2" s="43"/>
+      <c r="C2" s="34">
         <v>1811.9839999999999</v>
       </c>
       <c r="D2" s="8"/>
@@ -1045,11 +1045,11 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="37">
+      <c r="B3" s="43"/>
+      <c r="C3" s="32">
         <v>6863.8</v>
       </c>
       <c r="D3" s="7"/>
@@ -1065,11 +1065,11 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="36">
+      <c r="B4" s="43"/>
+      <c r="C4" s="31">
         <v>2333.1</v>
       </c>
       <c r="D4" s="7"/>
@@ -1085,11 +1085,11 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="38">
+      <c r="B5" s="43"/>
+      <c r="C5" s="33">
         <v>0.81400000000000095</v>
       </c>
       <c r="D5" s="9"/>
@@ -1105,19 +1105,19 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="40">
+      <c r="B6" s="43"/>
+      <c r="C6" s="35">
         <v>1.0505677145283143</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="23">
         <v>60</v>
       </c>
@@ -1134,10 +1134,10 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="21">
         <v>45</v>
       </c>
@@ -1154,10 +1154,10 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="47"/>
       <c r="C9">
         <f>C16+C10</f>
         <v>22.242843135468462</v>
@@ -1175,10 +1175,10 @@
       <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="45"/>
       <c r="C10">
         <f>60*(C13-(C22/C21)*EXP(-1*C21*C8))/C2/C7</f>
         <v>5.6668003631085018</v>
@@ -1196,10 +1196,10 @@
       <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="45"/>
       <c r="C11">
         <f>C16/C9</f>
         <v>0.74523039484677134</v>
@@ -1214,10 +1214,10 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="45"/>
       <c r="C12">
         <f>C9*C17/(3*0.693)</f>
         <v>149.59564637330493</v>
@@ -1235,10 +1235,10 @@
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16">
         <f>(C3+C4)/C5</f>
         <v>11298.402948402934</v>
@@ -1256,15 +1256,14 @@
       <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="44" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="16">
-        <f>C196</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="15"/>
@@ -1279,12 +1278,12 @@
       <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="15"/>
@@ -1299,7 +1298,7 @@
       <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="19" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1319,7 @@
       <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1340,7 @@
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="20" t="s">
         <v>25</v>
       </c>
@@ -1362,7 +1361,7 @@
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="20" t="s">
         <v>26</v>
       </c>
@@ -1383,7 +1382,7 @@
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="20" t="s">
         <v>27</v>
       </c>
@@ -1404,7 +1403,7 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="20" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1424,7 @@
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
@@ -1446,15 +1445,14 @@
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="16">
-        <f>C291</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1469,7 +1467,7 @@
       <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
@@ -1490,7 +1488,7 @@
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1509,7 @@
       <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1530,7 @@
       <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="20" t="s">
         <v>25</v>
       </c>
@@ -1553,7 +1551,7 @@
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
@@ -1574,7 +1572,7 @@
       <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="20" t="s">
         <v>27</v>
       </c>
@@ -1595,7 +1593,7 @@
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="20" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1614,7 @@
       <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="20" t="s">
         <v>29</v>
       </c>
@@ -1637,18 +1635,18 @@
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="19" t="s">
         <v>37</v>
       </c>
@@ -1669,7 +1667,7 @@
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="19" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1688,7 @@
       <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1709,7 @@
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
       </c>
@@ -1732,7 +1730,7 @@
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="20" t="s">
         <v>26</v>
       </c>
@@ -1753,7 +1751,7 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="20" t="s">
         <v>27</v>
       </c>
@@ -1774,7 +1772,7 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="20" t="s">
         <v>28</v>
       </c>
@@ -1795,7 +1793,7 @@
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="20" t="s">
         <v>29</v>
       </c>
@@ -1841,7 +1839,7 @@
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="36">
         <v>43289.7</v>
       </c>
       <c r="D42" s="7"/>
@@ -1860,7 +1858,7 @@
       <c r="B43" s="3">
         <v>2</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="36">
         <v>11527.6</v>
       </c>
       <c r="D43" s="7"/>
@@ -1879,7 +1877,7 @@
       <c r="B44" s="3">
         <v>3</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="36">
         <v>4698.7</v>
       </c>
       <c r="D44" s="7"/>
@@ -1898,7 +1896,7 @@
       <c r="B45" s="4">
         <v>4</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="36">
         <v>2540.8000000000002</v>
       </c>
       <c r="D45" s="7"/>
@@ -1917,7 +1915,7 @@
       <c r="B46" s="3">
         <v>5</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="36">
         <v>1544.6</v>
       </c>
       <c r="D46" s="7"/>
@@ -1936,7 +1934,7 @@
       <c r="B47" s="3">
         <v>6</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="36">
         <v>1133.8</v>
       </c>
       <c r="D47" s="7"/>
@@ -1955,7 +1953,7 @@
       <c r="B48" s="3">
         <v>7</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="36">
         <v>795.2</v>
       </c>
       <c r="D48" s="7"/>
@@ -1974,7 +1972,7 @@
       <c r="B49" s="3">
         <v>8</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="36">
         <v>586.5</v>
       </c>
       <c r="D49" s="7"/>
@@ -1993,7 +1991,7 @@
       <c r="B50" s="3">
         <v>9</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="36">
         <v>449.3</v>
       </c>
       <c r="D50" s="7"/>
@@ -2012,7 +2010,7 @@
       <c r="B51" s="4">
         <v>10</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="36">
         <v>429.6</v>
       </c>
       <c r="D51" s="7"/>
@@ -2031,7 +2029,7 @@
       <c r="B52" s="4">
         <v>11.5</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="36">
         <v>331.5</v>
       </c>
       <c r="D52" s="7"/>
@@ -2050,7 +2048,7 @@
       <c r="B53" s="3">
         <v>13</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="36">
         <v>312.60000000000002</v>
       </c>
       <c r="D53" s="7"/>
@@ -2068,7 +2066,7 @@
       <c r="B54" s="3">
         <v>14.5</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="36">
         <v>286.39999999999998</v>
       </c>
       <c r="D54" s="7"/>
@@ -2087,7 +2085,7 @@
       <c r="B55" s="3">
         <v>16</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="36">
         <v>289.2</v>
       </c>
       <c r="D55" s="7"/>
@@ -2106,7 +2104,7 @@
       <c r="B56" s="3">
         <v>17.5</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56" s="36">
         <v>228</v>
       </c>
       <c r="D56" s="7"/>
@@ -2125,7 +2123,7 @@
       <c r="B57" s="3">
         <v>19</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="36">
         <v>239.3</v>
       </c>
       <c r="D57" s="7"/>
@@ -2144,7 +2142,7 @@
       <c r="B58" s="3">
         <v>20.5</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="36">
         <v>200.8</v>
       </c>
       <c r="D58" s="7"/>
@@ -2163,7 +2161,7 @@
       <c r="B59" s="3">
         <v>22</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="36">
         <v>161.1</v>
       </c>
       <c r="D59" s="7"/>
@@ -2182,7 +2180,7 @@
       <c r="B60" s="3">
         <v>23.5</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="36">
         <v>147.19999999999999</v>
       </c>
       <c r="D60" s="7"/>
@@ -2201,7 +2199,7 @@
       <c r="B61" s="3">
         <v>25</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="36">
         <v>159.1</v>
       </c>
       <c r="D61" s="7"/>
@@ -2220,7 +2218,7 @@
       <c r="B62" s="3">
         <v>27</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="36">
         <v>201.6</v>
       </c>
       <c r="D62" s="7"/>
@@ -2239,7 +2237,7 @@
       <c r="B63" s="3">
         <v>29</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="36">
         <v>167.6</v>
       </c>
       <c r="D63" s="7"/>
@@ -2258,7 +2256,7 @@
       <c r="B64" s="3">
         <v>31</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="36">
         <v>143.1</v>
       </c>
     </row>
@@ -2266,7 +2264,7 @@
       <c r="B65" s="3">
         <v>33</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="36">
         <v>118.4</v>
       </c>
     </row>
@@ -2274,7 +2272,7 @@
       <c r="B66" s="3">
         <v>35</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="36">
         <v>96.1</v>
       </c>
     </row>
@@ -2282,7 +2280,7 @@
       <c r="B67" s="3">
         <v>37</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67" s="36">
         <v>122.1</v>
       </c>
     </row>
@@ -2290,7 +2288,7 @@
       <c r="B68" s="3">
         <v>39</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="36">
         <v>104.6</v>
       </c>
     </row>
@@ -2298,7 +2296,7 @@
       <c r="B69" s="3">
         <v>41</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C69" s="36">
         <v>92.8</v>
       </c>
     </row>
@@ -2306,7 +2304,7 @@
       <c r="B70" s="3">
         <v>43</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="36">
         <v>108.3</v>
       </c>
     </row>
@@ -2314,7 +2312,7 @@
       <c r="B71" s="3">
         <v>45</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="36">
         <v>103.6</v>
       </c>
     </row>
@@ -3312,7 +3310,7 @@
       <c r="B169" s="4">
         <v>4</v>
       </c>
-      <c r="C169" s="31">
+      <c r="C169" s="26">
         <f>RSQ($B138:$B$164, $C138:$C$164)</f>
         <v>0.83171955644897799</v>
       </c>
@@ -3332,7 +3330,7 @@
       <c r="B170" s="3">
         <v>5</v>
       </c>
-      <c r="C170" s="32">
+      <c r="C170" s="27">
         <f>RSQ($B139:$B$164, $C139:$C$164)</f>
         <v>0.85005702542850126</v>
       </c>
@@ -3352,7 +3350,7 @@
       <c r="B171" s="3">
         <v>6</v>
       </c>
-      <c r="C171" s="32">
+      <c r="C171" s="27">
         <f>RSQ($B140:$B$164, $C140:$C$164)</f>
         <v>0.86303392991095329</v>
       </c>
@@ -3372,7 +3370,7 @@
       <c r="B172" s="3">
         <v>7</v>
       </c>
-      <c r="C172" s="33">
+      <c r="C172" s="28">
         <f>RSQ($B141:$B$164, $C141:$C$164)</f>
         <v>0.87890244834263642</v>
       </c>
@@ -3392,7 +3390,7 @@
       <c r="B173" s="3">
         <v>8</v>
       </c>
-      <c r="C173" s="34">
+      <c r="C173" s="29">
         <f>RSQ($B142:$B$164, $C142:$C$164)</f>
         <v>0.89185592124025914</v>
       </c>
@@ -3412,7 +3410,7 @@
       <c r="B174" s="3">
         <v>9</v>
       </c>
-      <c r="C174" s="31">
+      <c r="C174" s="26">
         <f>RSQ($B143:$B$164, $C143:$C$164)</f>
         <v>0.90150519537141793</v>
       </c>
@@ -3432,7 +3430,7 @@
       <c r="B175" s="4">
         <v>10</v>
       </c>
-      <c r="C175" s="32">
+      <c r="C175" s="27">
         <f>RSQ($B144:$B$164, $C144:$C$164)</f>
         <v>0.90699798576457191</v>
       </c>
@@ -3452,7 +3450,7 @@
       <c r="B176" s="4">
         <v>11.5</v>
       </c>
-      <c r="C176" s="30">
+      <c r="C176" s="25">
         <f>RSQ($B145:$B$164, $C145:$C$164)</f>
         <v>0.93545728636375092</v>
       </c>
@@ -3472,7 +3470,7 @@
       <c r="B177" s="3">
         <v>13</v>
       </c>
-      <c r="C177" s="31">
+      <c r="C177" s="26">
         <f>RSQ($B146:$B$164, $C146:$C$164)</f>
         <v>0.92642262315592905</v>
       </c>
@@ -3492,7 +3490,7 @@
       <c r="B178" s="3">
         <v>14.5</v>
       </c>
-      <c r="C178" s="31">
+      <c r="C178" s="26">
         <f>RSQ($B147:$B$164, $C147:$C$164)</f>
         <v>0.91578873663954852</v>
       </c>
@@ -4105,7 +4103,7 @@
       <c r="B238" s="4">
         <v>10</v>
       </c>
-      <c r="C238" s="35"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" s="13">
@@ -4317,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="C263" s="11">
-        <f t="shared" ref="C263:C269" si="3">SUM(C200,C232)</f>
+        <f t="shared" ref="C263:C266" si="3">SUM(C200,C232)</f>
         <v>1.9541809292347572</v>
       </c>
     </row>
